--- a/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/018_cam_data.xlsx
+++ b/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/018_cam_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,28 +750,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45392.36805555555</v>
+        <v>45392.70138888889</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -791,40 +791,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45392.36111111111</v>
+        <v>45392.69444444445</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
         <v>3</v>
       </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
       <c r="M9" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -832,28 +832,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45392.35416666666</v>
+        <v>45392.6875</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G10" t="n">
         <v>3</v>
       </c>
-      <c r="F10" t="n">
-        <v>26</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -873,40 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45392.34722222222</v>
+        <v>45392.68055555555</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>122</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>59</v>
       </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>37</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>47</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -914,40 +914,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45392.34027777778</v>
+        <v>45392.67361111111</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -955,39 +955,285 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
+        <v>45392.66666666666</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>119</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45392.36805555555</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>102</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>70</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45392.36111111111</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>34</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45392.35416666666</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>41</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45392.34722222222</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" t="n">
+        <v>59</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>37</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45392.34027777778</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>80</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>61</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>45392.33333333334</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C19" t="n">
         <v>5</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D19" t="n">
         <v>73</v>
       </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
         <v>35</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>69</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>3</v>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
         <v>9</v>
       </c>
     </row>

--- a/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/018_cam_data.xlsx
+++ b/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/018_cam_data.xlsx
@@ -1,40 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Semester 3/Towards-Sustainable-Cities-through-Simulation/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_4744071E9C015233DCFE31D2F8375B0674129E29" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E86261-9E1D-4588-B5B8-CBB3FE06289F}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-23940" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Motorcycle (S)</t>
+  </si>
+  <si>
+    <t>PKW (S)</t>
+  </si>
+  <si>
+    <t>Small Transporter (S)</t>
+  </si>
+  <si>
+    <t>Transporter (S)</t>
+  </si>
+  <si>
+    <t>LKW (S)</t>
+  </si>
+  <si>
+    <t>Motorcycle (R)</t>
+  </si>
+  <si>
+    <t>PKW (R)</t>
+  </si>
+  <si>
+    <t>Small Transporter (R)</t>
+  </si>
+  <si>
+    <t>Transporter (R)</t>
+  </si>
+  <si>
+    <t>LKW (R)</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,101 +99,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -181,7 +181,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,6 +215,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,9 +250,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -424,123 +426,795 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Motorcycle (S)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PKW (S)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Small Transporter (S)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Transporter (S)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>LKW (S)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Motorcycle (R)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PKW (R)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Small Transporter (R)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Transporter (R)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>LKW (R)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Bicycle</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45250.33333333334</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45392.875</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45392.868055555547</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45392.861111111109</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>53</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45392.854166666657</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45392.847222222219</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45392.840277777781</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45392.708333333343</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>137</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45392.701388888891</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>93</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>53</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45392.694444444453</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>49</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="B11" s="2">
+        <v>45392.6875</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>98</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45392.680555555547</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>122</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>59</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45392.673611111109</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>107</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>19</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>42</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45392.375</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>112</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>56</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>68</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45392.368055555547</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>70</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45392.361111111109</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>34</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>50</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45392.354166666657</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>78</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>41</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45392.347222222219</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>37</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>47</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45392.340277777781</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>61</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>